--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8208CACA-F2B5-4361-B4BB-24FE9494C2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F853B-9A59-407F-820D-63C241161DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A8DEDC4-CB9B-498E-8AE8-001C1215F133}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40351ACF-9761-4359-A7E1-5BF2C00C94E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F9A16-D9CC-4A14-B37B-5112E40D32D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9F3D2-F83C-45A9-BED5-335813935FE1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8F853B-9A59-407F-820D-63C241161DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48606BA-E848-4AAA-9424-353638B2A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40351ACF-9761-4359-A7E1-5BF2C00C94E2}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FD9E5B36-5CE7-4454-A457-96EF0F2D69C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A9F3D2-F83C-45A9-BED5-335813935FE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA41C32-9B27-4C8D-B729-FDE91B32AF17}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/Angle/f11_95RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\Angle\f11_95RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48606BA-E848-4AAA-9424-353638B2A272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D449B-52C0-42DF-90A5-0A4357723E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FD9E5B36-5CE7-4454-A457-96EF0F2D69C9}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{6A590B16-0C5D-42F1-93FA-7FA99BBAD7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA41C32-9B27-4C8D-B729-FDE91B32AF17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA74A8B-E023-457B-84A5-A862D3C6EC68}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
